--- a/document/使用单位列表.xlsx
+++ b/document/使用单位列表.xlsx
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -107,11 +107,12 @@
     <col min="1" max="1" width="20.0" customWidth="true"/>
     <col min="2" max="2" width="40.0" customWidth="true"/>
     <col min="3" max="3" width="40.0" customWidth="true"/>
-    <col min="4" max="4" width="10.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
     <col min="5" max="5" width="10.0" customWidth="true"/>
     <col min="6" max="6" width="10.0" customWidth="true"/>
-    <col min="7" max="7" width="30.0" customWidth="true"/>
+    <col min="7" max="7" width="10.0" customWidth="true"/>
     <col min="8" max="8" width="30.0" customWidth="true"/>
+    <col min="9" max="9" width="30.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -132,30 +133,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>资产数量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>单位等级</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>明细</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>状态</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>创建时间</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>修改时间</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
@@ -178,21 +184,24 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3" t="n">
+        <v>44681.44369212963</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -214,18 +223,21 @@
         <v>2.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -244,21 +256,24 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -277,21 +292,24 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F5" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G5" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -310,21 +328,24 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F6" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G6" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H6" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -343,21 +364,24 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F7" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G7" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H7" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="3" t="n">
+        <v>44681.44380787037</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -376,21 +400,24 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F8" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G8" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -409,21 +436,24 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F9" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G9" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G9" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H9" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -442,21 +472,24 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F10" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G10" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -475,21 +508,24 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F11" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G11" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -508,21 +544,24 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F12" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G12" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H12" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -541,21 +580,24 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F13" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G13" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H13" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -574,21 +616,24 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F14" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G14" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H14" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -607,21 +652,24 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F15" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G15" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G15" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -640,21 +688,24 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F16" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G16" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -673,21 +724,24 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F17" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G17" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G17" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -706,21 +760,24 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G18" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H18" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -739,21 +796,24 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G19" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G19" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H19" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -772,21 +832,24 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G20" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G20" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H20" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -805,21 +868,24 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G21" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G21" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H21" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -838,21 +904,24 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G22" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G22" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H22" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -871,21 +940,24 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G23" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G23" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -904,21 +976,24 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G24" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G24" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H24" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -937,21 +1012,24 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G25" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G25" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H25" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -970,21 +1048,24 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G26" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G26" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1003,21 +1084,24 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G27" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G27" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H27" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1036,21 +1120,24 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H28" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -1069,21 +1156,24 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E29" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F29" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G29" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G29" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -1102,21 +1192,24 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E30" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F30" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G30" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G30" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H30" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -1135,21 +1228,24 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E31" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F31" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G31" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G31" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I31" s="2"/>
+      <c r="I31" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -1168,21 +1264,24 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E32" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F32" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G32" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G32" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H32" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -1201,21 +1300,24 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E33" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F33" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G33" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G33" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I33" s="2"/>
+      <c r="I33" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -1234,21 +1336,24 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G34" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -1267,21 +1372,24 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E35" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F35" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G35" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G35" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I35" s="2"/>
+      <c r="I35" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -1300,21 +1408,24 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E36" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F36" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G36" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G36" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H36" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I36" s="2"/>
+      <c r="I36" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -1333,21 +1444,24 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E37" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F37" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G37" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G37" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H37" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -1366,21 +1480,24 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E38" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F38" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G38" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G38" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H38" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I38" s="2"/>
+      <c r="I38" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -1399,21 +1516,24 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E39" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F39" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G39" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G39" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H39" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I39" s="2"/>
+      <c r="I39" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -1432,21 +1552,24 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G40" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G40" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H40" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -1465,21 +1588,24 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G41" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G41" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I41" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -1498,21 +1624,24 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G42" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G42" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I42" s="2"/>
+      <c r="I42" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -1531,21 +1660,24 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G43" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G43" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I43" s="2"/>
+      <c r="I43" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -1564,21 +1696,24 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G44" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G44" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H44" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I44" s="2"/>
+      <c r="I44" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -1597,21 +1732,24 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G45" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G45" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I45" s="2"/>
+      <c r="I45" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -1630,21 +1768,24 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G46" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G46" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H46" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I46" s="2"/>
+      <c r="I46" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -1663,21 +1804,24 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G47" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G47" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H47" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I47" s="2"/>
+      <c r="I47" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -1696,21 +1840,24 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G48" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G48" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H48" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I48" s="2"/>
+      <c r="I48" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -1729,21 +1876,24 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G49" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G49" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H49" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I49" s="2"/>
+      <c r="I49" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -1762,21 +1912,24 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G50" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G50" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H50" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I50" s="2"/>
+      <c r="I50" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -1795,21 +1948,24 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G51" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G51" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H51" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I51" s="2"/>
+      <c r="I51" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -1828,21 +1984,24 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G52" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G52" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H52" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I52" s="2"/>
+      <c r="I52" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -1861,21 +2020,24 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G53" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G53" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H53" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I53" s="2"/>
+      <c r="I53" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -1894,21 +2056,24 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G54" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G54" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H54" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I54" s="2"/>
+      <c r="I54" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -1927,21 +2092,24 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G55" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G55" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H55" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I55" s="2"/>
+      <c r="I55" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -1960,21 +2128,24 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G56" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G56" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H56" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I56" s="2"/>
+      <c r="I56" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -1993,21 +2164,24 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G57" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G57" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H57" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I57" s="2"/>
+      <c r="I57" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -2026,21 +2200,24 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G58" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G58" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H58" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I58" s="2"/>
+      <c r="I58" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -2059,21 +2236,24 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G59" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G59" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H59" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I59" s="2"/>
+      <c r="I59" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -2092,21 +2272,24 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G60" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G60" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H60" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I60" s="2"/>
+      <c r="I60" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -2125,21 +2308,24 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G61" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G61" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H61" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I61" s="2"/>
+      <c r="I61" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -2158,21 +2344,24 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G62" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G62" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H62" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I62" s="2"/>
+      <c r="I62" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -2191,21 +2380,24 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G63" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G63" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H63" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I63" s="2"/>
+      <c r="I63" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -2224,21 +2416,24 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G64" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G64" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H64" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I64" s="2"/>
+      <c r="I64" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -2257,21 +2452,24 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G65" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G65" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H65" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I65" s="2"/>
+      <c r="I65" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -2290,21 +2488,24 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G66" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G66" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H66" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I66" s="2"/>
+      <c r="I66" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -2323,21 +2524,24 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G67" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G67" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H67" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I67" s="2"/>
+      <c r="I67" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -2356,21 +2560,24 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G68" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G68" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H68" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I68" s="2"/>
+      <c r="I68" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -2389,21 +2596,24 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="E69" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F69" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G69" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G69" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H69" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I69" s="2"/>
+      <c r="I69" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -2422,21 +2632,24 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E70" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="E70" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F70" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G70" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G70" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H70" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I70" s="2"/>
+      <c r="I70" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -2455,21 +2668,24 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E71" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="E71" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F71" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G71" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G71" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H71" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I71" s="2"/>
+      <c r="I71" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -2488,21 +2704,24 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E72" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="E72" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F72" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G72" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G72" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H72" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I72" s="2"/>
+      <c r="I72" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -2521,21 +2740,24 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E73" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="E73" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F73" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G73" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G73" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H73" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I73" s="2"/>
+      <c r="I73" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -2554,21 +2776,24 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E74" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="E74" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F74" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G74" s="3" t="n">
-        <v>44681.3915625</v>
+      <c r="G74" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H74" s="3" t="n">
         <v>44681.3915625</v>
       </c>
-      <c r="I74" s="2"/>
+      <c r="I74" s="3" t="n">
+        <v>44681.3915625</v>
+      </c>
+      <c r="J74" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/document/使用单位列表.xlsx
+++ b/document/使用单位列表.xlsx
@@ -196,12 +196,16 @@
         <v>1.0</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44681.44369212963</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -220,7 +224,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>2.0</v>
@@ -232,12 +236,16 @@
         <v>1.0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -268,12 +276,16 @@
         <v>1.0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -292,7 +304,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>4.0</v>
@@ -304,12 +316,16 @@
         <v>1.0</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -328,7 +344,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>4.0</v>
@@ -340,12 +356,16 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -364,7 +384,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>4.0</v>
@@ -376,12 +396,16 @@
         <v>1.0</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>44681.44380787037</v>
-      </c>
-      <c r="J7" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -400,7 +424,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.0</v>
+        <v>35.0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>4.0</v>
@@ -412,12 +436,16 @@
         <v>1.0</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -436,7 +464,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>4.0</v>
@@ -448,12 +476,16 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -472,7 +504,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>4.0</v>
@@ -484,12 +516,16 @@
         <v>1.0</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -508,7 +544,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>4.0</v>
@@ -520,12 +556,16 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J11" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -544,7 +584,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>4.0</v>
@@ -556,12 +596,16 @@
         <v>1.0</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -580,7 +624,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>4.0</v>
@@ -592,12 +636,16 @@
         <v>1.0</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -616,7 +664,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.0</v>
+        <v>294.0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>4.0</v>
@@ -628,12 +676,16 @@
         <v>1.0</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J14" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -652,7 +704,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>4.0</v>
@@ -664,12 +716,16 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J15" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -700,12 +756,16 @@
         <v>1.0</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J16" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -736,12 +796,16 @@
         <v>1.0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J17" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -760,7 +824,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.0</v>
+        <v>356.0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>3.0</v>
@@ -772,12 +836,16 @@
         <v>1.0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -796,7 +864,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.0</v>
+        <v>197.0</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>3.0</v>
@@ -808,12 +876,16 @@
         <v>1.0</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J19" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -832,7 +904,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.0</v>
+        <v>150.0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>3.0</v>
@@ -844,12 +916,16 @@
         <v>1.0</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J20" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -868,7 +944,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.0</v>
+        <v>263.0</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>3.0</v>
@@ -880,12 +956,16 @@
         <v>1.0</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J21" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -904,7 +984,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.0</v>
+        <v>113.0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>3.0</v>
@@ -916,12 +996,16 @@
         <v>1.0</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -940,7 +1024,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>3.0</v>
@@ -952,12 +1036,16 @@
         <v>1.0</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J23" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -976,7 +1064,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.0</v>
+        <v>240.0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>3.0</v>
@@ -988,12 +1076,16 @@
         <v>1.0</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J24" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1012,7 +1104,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.0</v>
+        <v>158.0</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>3.0</v>
@@ -1024,12 +1116,16 @@
         <v>1.0</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J25" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1048,7 +1144,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.0</v>
+        <v>314.0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>3.0</v>
@@ -1060,12 +1156,16 @@
         <v>1.0</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1084,7 +1184,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.0</v>
+        <v>138.0</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>3.0</v>
@@ -1096,12 +1196,16 @@
         <v>1.0</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J27" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1132,12 +1236,16 @@
         <v>1.0</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -1156,7 +1264,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>4.0</v>
@@ -1168,12 +1276,16 @@
         <v>1.0</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J29" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -1192,7 +1304,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>4.0</v>
@@ -1204,12 +1316,16 @@
         <v>1.0</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J30" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -1228,7 +1344,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>4.0</v>
@@ -1240,12 +1356,16 @@
         <v>1.0</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J31" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -1264,7 +1384,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>4.0</v>
@@ -1276,12 +1396,16 @@
         <v>1.0</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J32" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -1300,7 +1424,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>4.0</v>
@@ -1312,12 +1436,16 @@
         <v>1.0</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J33" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -1348,12 +1476,16 @@
         <v>1.0</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J34" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -1372,7 +1504,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>4.0</v>
@@ -1384,12 +1516,16 @@
         <v>1.0</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J35" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -1408,7 +1544,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>4.0</v>
@@ -1420,12 +1556,16 @@
         <v>1.0</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J36" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -1444,7 +1584,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>4.0</v>
@@ -1456,12 +1596,16 @@
         <v>1.0</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J37" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -1480,7 +1624,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>4.0</v>
@@ -1492,12 +1636,16 @@
         <v>1.0</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J38" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -1516,7 +1664,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>4.0</v>
@@ -1528,12 +1676,16 @@
         <v>1.0</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J39" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -1552,7 +1704,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.0</v>
+        <v>106.0</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>3.0</v>
@@ -1564,12 +1716,16 @@
         <v>1.0</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J40" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -1588,7 +1744,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>3.0</v>
@@ -1600,12 +1756,16 @@
         <v>1.0</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J41" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -1624,7 +1784,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>3.0</v>
@@ -1636,12 +1796,16 @@
         <v>1.0</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J42" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -1672,12 +1836,16 @@
         <v>1.0</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J43" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -1708,12 +1876,16 @@
         <v>1.0</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J44" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -1744,12 +1916,16 @@
         <v>1.0</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J45" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -1780,12 +1956,16 @@
         <v>1.0</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J46" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -1816,12 +1996,16 @@
         <v>1.0</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J47" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -1852,12 +2036,16 @@
         <v>1.0</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J48" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -1888,12 +2076,16 @@
         <v>1.0</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J49" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -1912,7 +2104,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>3.0</v>
@@ -1924,12 +2116,16 @@
         <v>1.0</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J50" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -1960,12 +2156,16 @@
         <v>1.0</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J51" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -1996,12 +2196,16 @@
         <v>1.0</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J52" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -2032,12 +2236,16 @@
         <v>1.0</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J53" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -2056,7 +2264,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>3.0</v>
@@ -2068,12 +2276,16 @@
         <v>1.0</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J54" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -2092,7 +2304,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.0</v>
+        <v>371.0</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>3.0</v>
@@ -2104,12 +2316,16 @@
         <v>1.0</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J55" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -2140,12 +2356,16 @@
         <v>1.0</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J56" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -2164,7 +2384,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.0</v>
+        <v>153.0</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>3.0</v>
@@ -2176,12 +2396,16 @@
         <v>1.0</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J57" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -2212,12 +2436,16 @@
         <v>1.0</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J58" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -2236,7 +2464,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>3.0</v>
@@ -2248,12 +2476,16 @@
         <v>1.0</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J59" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -2284,12 +2516,16 @@
         <v>1.0</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J60" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -2308,7 +2544,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>3.0</v>
@@ -2320,12 +2556,16 @@
         <v>1.0</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J61" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -2344,7 +2584,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>3.0</v>
@@ -2356,12 +2596,16 @@
         <v>1.0</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J62" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -2380,7 +2624,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>3.0</v>
@@ -2392,12 +2636,16 @@
         <v>1.0</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J63" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -2428,12 +2676,16 @@
         <v>1.0</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J64" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -2452,7 +2704,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>3.0</v>
@@ -2464,12 +2716,16 @@
         <v>1.0</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J65" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -2488,7 +2744,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>3.0</v>
@@ -2500,12 +2756,16 @@
         <v>1.0</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J66" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -2524,7 +2784,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>3.0</v>
@@ -2536,12 +2796,16 @@
         <v>1.0</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J67" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -2560,7 +2824,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>3.0</v>
@@ -2572,12 +2836,16 @@
         <v>1.0</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J68" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -2596,7 +2864,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>2.0</v>
@@ -2608,12 +2876,16 @@
         <v>1.0</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J69" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -2632,7 +2904,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.0</v>
+        <v>125.0</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>2.0</v>
@@ -2644,12 +2916,16 @@
         <v>1.0</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J70" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -2680,12 +2956,16 @@
         <v>1.0</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J71" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -2704,7 +2984,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>2.0</v>
@@ -2716,12 +2996,16 @@
         <v>1.0</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J72" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -2752,12 +3036,16 @@
         <v>1.0</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J73" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -2776,7 +3064,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>2.0</v>
@@ -2788,12 +3076,16 @@
         <v>1.0</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>44681.3915625</v>
+        <v>44683.51943287037</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>44681.3915625</v>
-      </c>
-      <c r="J74" s="2"/>
+        <v>44683.51943287037</v>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/document/使用单位列表.xlsx
+++ b/document/使用单位列表.xlsx
@@ -196,10 +196,10 @@
         <v>1.0</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -236,10 +236,10 @@
         <v>1.0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -276,10 +276,10 @@
         <v>1.0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -316,10 +316,10 @@
         <v>1.0</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
@@ -356,10 +356,10 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -396,10 +396,10 @@
         <v>1.0</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
@@ -436,10 +436,10 @@
         <v>1.0</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
@@ -476,10 +476,10 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         <v>1.0</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
@@ -596,10 +596,10 @@
         <v>1.0</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -636,10 +636,10 @@
         <v>1.0</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
@@ -676,10 +676,10 @@
         <v>1.0</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
@@ -716,10 +716,10 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         <v>1.0</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
@@ -796,10 +796,10 @@
         <v>1.0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
@@ -836,10 +836,10 @@
         <v>1.0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         <v>1.0</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
@@ -916,10 +916,10 @@
         <v>1.0</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>1.0</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -996,10 +996,10 @@
         <v>1.0</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         <v>1.0</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
         <v>1.0</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
@@ -1116,10 +1116,10 @@
         <v>1.0</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
@@ -1156,10 +1156,10 @@
         <v>1.0</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
@@ -1196,10 +1196,10 @@
         <v>1.0</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
@@ -1236,10 +1236,10 @@
         <v>1.0</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         <v>1.0</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
@@ -1316,10 +1316,10 @@
         <v>1.0</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
@@ -1356,10 +1356,10 @@
         <v>1.0</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>1.0</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
@@ -1436,10 +1436,10 @@
         <v>1.0</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
@@ -1476,10 +1476,10 @@
         <v>1.0</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
@@ -1516,10 +1516,10 @@
         <v>1.0</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
@@ -1556,10 +1556,10 @@
         <v>1.0</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
         <v>1.0</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         <v>1.0</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
@@ -1676,10 +1676,10 @@
         <v>1.0</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
@@ -1716,10 +1716,10 @@
         <v>1.0</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
         <v>1.0</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
         <v>1.0</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>1.0</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
@@ -1876,10 +1876,10 @@
         <v>1.0</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
@@ -1916,10 +1916,10 @@
         <v>1.0</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
@@ -1956,10 +1956,10 @@
         <v>1.0</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
@@ -1996,10 +1996,10 @@
         <v>1.0</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
@@ -2036,10 +2036,10 @@
         <v>1.0</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
@@ -2076,10 +2076,10 @@
         <v>1.0</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         <v>1.0</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
@@ -2156,10 +2156,10 @@
         <v>1.0</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
@@ -2196,10 +2196,10 @@
         <v>1.0</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
@@ -2236,10 +2236,10 @@
         <v>1.0</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
@@ -2276,10 +2276,10 @@
         <v>1.0</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
@@ -2316,10 +2316,10 @@
         <v>1.0</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
@@ -2356,10 +2356,10 @@
         <v>1.0</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         <v>1.0</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
@@ -2436,10 +2436,10 @@
         <v>1.0</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
@@ -2476,10 +2476,10 @@
         <v>1.0</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
@@ -2516,10 +2516,10 @@
         <v>1.0</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
@@ -2556,10 +2556,10 @@
         <v>1.0</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         <v>1.0</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
@@ -2636,10 +2636,10 @@
         <v>1.0</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
@@ -2676,10 +2676,10 @@
         <v>1.0</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
@@ -2716,10 +2716,10 @@
         <v>1.0</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
@@ -2756,10 +2756,10 @@
         <v>1.0</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J66" s="2" t="inlineStr">
         <is>
@@ -2796,10 +2796,10 @@
         <v>1.0</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>1.0</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J68" s="2" t="inlineStr">
         <is>
@@ -2876,10 +2876,10 @@
         <v>1.0</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
@@ -2916,10 +2916,10 @@
         <v>1.0</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
@@ -2956,10 +2956,10 @@
         <v>1.0</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
@@ -2996,10 +2996,10 @@
         <v>1.0</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
@@ -3036,10 +3036,10 @@
         <v>1.0</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
@@ -3076,10 +3076,10 @@
         <v>1.0</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>44683.51943287037</v>
+        <v>44687.384247685186</v>
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>

--- a/document/使用单位列表.xlsx
+++ b/document/使用单位列表.xlsx
@@ -196,10 +196,10 @@
         <v>1.0</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -236,10 +236,10 @@
         <v>1.0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -276,10 +276,10 @@
         <v>1.0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -316,10 +316,10 @@
         <v>1.0</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
@@ -356,10 +356,10 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -396,10 +396,10 @@
         <v>1.0</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
@@ -436,10 +436,10 @@
         <v>1.0</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
@@ -476,10 +476,10 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         <v>1.0</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
@@ -596,10 +596,10 @@
         <v>1.0</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -636,10 +636,10 @@
         <v>1.0</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
@@ -676,10 +676,10 @@
         <v>1.0</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
@@ -716,10 +716,10 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         <v>1.0</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
@@ -796,10 +796,10 @@
         <v>1.0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
@@ -836,10 +836,10 @@
         <v>1.0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         <v>1.0</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
@@ -916,10 +916,10 @@
         <v>1.0</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>1.0</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -996,10 +996,10 @@
         <v>1.0</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         <v>1.0</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
         <v>1.0</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
@@ -1116,10 +1116,10 @@
         <v>1.0</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
@@ -1156,10 +1156,10 @@
         <v>1.0</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
@@ -1196,10 +1196,10 @@
         <v>1.0</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
@@ -1236,10 +1236,10 @@
         <v>1.0</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         <v>1.0</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
@@ -1316,10 +1316,10 @@
         <v>1.0</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
@@ -1356,10 +1356,10 @@
         <v>1.0</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>1.0</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
@@ -1436,10 +1436,10 @@
         <v>1.0</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
@@ -1476,10 +1476,10 @@
         <v>1.0</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
@@ -1516,10 +1516,10 @@
         <v>1.0</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
@@ -1556,10 +1556,10 @@
         <v>1.0</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
         <v>1.0</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         <v>1.0</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
@@ -1676,10 +1676,10 @@
         <v>1.0</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
@@ -1716,10 +1716,10 @@
         <v>1.0</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
         <v>1.0</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
         <v>1.0</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>1.0</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
@@ -1876,10 +1876,10 @@
         <v>1.0</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
@@ -1916,10 +1916,10 @@
         <v>1.0</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
@@ -1956,10 +1956,10 @@
         <v>1.0</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
@@ -1996,10 +1996,10 @@
         <v>1.0</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
@@ -2036,10 +2036,10 @@
         <v>1.0</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
@@ -2076,10 +2076,10 @@
         <v>1.0</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         <v>1.0</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
@@ -2156,10 +2156,10 @@
         <v>1.0</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
@@ -2196,10 +2196,10 @@
         <v>1.0</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
@@ -2236,10 +2236,10 @@
         <v>1.0</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
@@ -2276,10 +2276,10 @@
         <v>1.0</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
@@ -2316,10 +2316,10 @@
         <v>1.0</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
@@ -2356,10 +2356,10 @@
         <v>1.0</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         <v>1.0</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
@@ -2436,10 +2436,10 @@
         <v>1.0</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
@@ -2476,10 +2476,10 @@
         <v>1.0</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
@@ -2516,10 +2516,10 @@
         <v>1.0</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
@@ -2556,10 +2556,10 @@
         <v>1.0</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         <v>1.0</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
@@ -2636,10 +2636,10 @@
         <v>1.0</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
@@ -2676,10 +2676,10 @@
         <v>1.0</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
@@ -2716,10 +2716,10 @@
         <v>1.0</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
@@ -2756,10 +2756,10 @@
         <v>1.0</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J66" s="2" t="inlineStr">
         <is>
@@ -2796,10 +2796,10 @@
         <v>1.0</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>1.0</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J68" s="2" t="inlineStr">
         <is>
@@ -2876,10 +2876,10 @@
         <v>1.0</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
@@ -2916,10 +2916,10 @@
         <v>1.0</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
@@ -2956,10 +2956,10 @@
         <v>1.0</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
@@ -2996,10 +2996,10 @@
         <v>1.0</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
@@ -3036,10 +3036,10 @@
         <v>1.0</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
@@ -3076,10 +3076,10 @@
         <v>1.0</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>44687.384247685186</v>
+        <v>44687.38585648148</v>
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
